--- a/DB Design/import.xlsx
+++ b/DB Design/import.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Question</t>
   </si>
@@ -40,19 +40,13 @@
     <t>Point</t>
   </si>
   <si>
-    <t>TestChildSubjectId</t>
-  </si>
-  <si>
-    <t>UserId</t>
-  </si>
-  <si>
-    <t>ResultId</t>
-  </si>
-  <si>
     <t>Test Excel</t>
   </si>
   <si>
     <t>abcd</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
@@ -394,16 +388,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A4:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
     <col min="6" max="6" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="15.375" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
@@ -411,109 +408,85 @@
     <col min="10" max="10" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
         <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
